--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_21_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_21_9.xlsx
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_13</t>
+          <t>model_21_9_21</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9451162926428776</v>
+        <v>0.957864779800686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7862958933417818</v>
+        <v>0.8153829851795996</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6639480634349868</v>
+        <v>0.8032460883659864</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8174194655058996</v>
+        <v>0.725615641684737</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7835316594951238</v>
+        <v>0.779339507905594</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3670076038133133</v>
+        <v>0.2817584114876626</v>
       </c>
       <c r="H2" t="n">
-        <v>1.429040345240435</v>
+        <v>1.234534828187205</v>
       </c>
       <c r="I2" t="n">
-        <v>0.670743819605319</v>
+        <v>0.4825631835328374</v>
       </c>
       <c r="J2" t="n">
-        <v>0.447433895405322</v>
+        <v>0.3446703797135212</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5590892165761385</v>
+        <v>0.4136166161637796</v>
       </c>
       <c r="L2" t="n">
-        <v>1.077043351664951</v>
+        <v>1.299265393789203</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6058115249921491</v>
+        <v>0.5308092044112108</v>
       </c>
       <c r="N2" t="n">
-        <v>1.023108929413525</v>
+        <v>1.017741145347079</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6316021758138044</v>
+        <v>0.5534068511695283</v>
       </c>
       <c r="P2" t="n">
-        <v>164.0047454246097</v>
+        <v>164.5334105441415</v>
       </c>
       <c r="Q2" t="n">
-        <v>262.7336872389339</v>
+        <v>263.2623523584658</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_14</t>
+          <t>model_21_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.945292568549346</v>
+        <v>0.9576656128919266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7862950453466701</v>
+        <v>0.8153815619055185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6561257403292458</v>
+        <v>0.7932629099548328</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8172597540243594</v>
+        <v>0.7236800184718275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.780433582602664</v>
+        <v>0.7721595927321212</v>
       </c>
       <c r="G3" t="n">
-        <v>0.365828846015083</v>
+        <v>0.2830902415236153</v>
       </c>
       <c r="H3" t="n">
-        <v>1.429046015787653</v>
+        <v>1.234544345627539</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6863568076802044</v>
+        <v>0.5070481572538363</v>
       </c>
       <c r="J3" t="n">
-        <v>0.447825286144343</v>
+        <v>0.3471018302228438</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5670908549619558</v>
+        <v>0.42707499373834</v>
       </c>
       <c r="L3" t="n">
-        <v>1.076472465062883</v>
+        <v>1.303119301048126</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6048378675439254</v>
+        <v>0.5320622534286897</v>
       </c>
       <c r="N3" t="n">
-        <v>1.023034707979223</v>
+        <v>1.017825005098136</v>
       </c>
       <c r="O3" t="n">
-        <v>0.630587067752261</v>
+        <v>0.5547132450778502</v>
       </c>
       <c r="P3" t="n">
-        <v>164.0111793775883</v>
+        <v>164.5239791150537</v>
       </c>
       <c r="Q3" t="n">
-        <v>262.7401211919125</v>
+        <v>263.252920929378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_12</t>
+          <t>model_21_9_20</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9449262553142922</v>
+        <v>0.9580392723886167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7862852170757442</v>
+        <v>0.8153617007197469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6717351448141634</v>
+        <v>0.8130290824384099</v>
       </c>
       <c r="E4" t="n">
-        <v>0.81756618325986</v>
+        <v>0.7274210240970035</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7866103070569674</v>
+        <v>0.7863446404971989</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3682783843046047</v>
+        <v>0.280591578748705</v>
       </c>
       <c r="H4" t="n">
-        <v>1.429111737480589</v>
+        <v>1.234677157468247</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6552011723549114</v>
+        <v>0.4585691865400204</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4470743472401162</v>
+        <v>0.3424025323574083</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5511377597975138</v>
+        <v>0.4004858594487144</v>
       </c>
       <c r="L4" t="n">
-        <v>1.077617159390469</v>
+        <v>1.295406607520545</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6068594436149154</v>
+        <v>0.5297089566438394</v>
       </c>
       <c r="N4" t="n">
-        <v>1.023188945130824</v>
+        <v>1.01766767478374</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6326947065018325</v>
+        <v>0.552259763576873</v>
       </c>
       <c r="P4" t="n">
-        <v>163.9978322954214</v>
+        <v>164.5417102467021</v>
       </c>
       <c r="Q4" t="n">
-        <v>262.7267741097456</v>
+        <v>263.2706520610264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_15</t>
+          <t>model_21_9_23</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.94545544395843</v>
+        <v>0.9574426268009075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7862830575466662</v>
+        <v>0.8153579815734057</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6482719462105219</v>
+        <v>0.7830886990427304</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8170875026808795</v>
+        <v>0.7216191161329948</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7773170785714232</v>
+        <v>0.7648127165698435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3647396974045657</v>
+        <v>0.2845813505410162</v>
       </c>
       <c r="H5" t="n">
-        <v>1.429126178261478</v>
+        <v>1.234702027416955</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7020326104130583</v>
+        <v>0.5320016616945071</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4482474072089765</v>
+        <v>0.3496906512330481</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5751400865180298</v>
+        <v>0.4408463310029897</v>
       </c>
       <c r="L5" t="n">
-        <v>1.075902990823389</v>
+        <v>1.306955668694294</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6039368322966946</v>
+        <v>0.5334616673585987</v>
       </c>
       <c r="N5" t="n">
-        <v>1.022966128859608</v>
+        <v>1.017918893978565</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6296476735691554</v>
+        <v>0.5561722349559416</v>
       </c>
       <c r="P5" t="n">
-        <v>164.0171426752267</v>
+        <v>164.5134722482834</v>
       </c>
       <c r="Q5" t="n">
-        <v>262.7460844895509</v>
+        <v>263.2424140626077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_11</t>
+          <t>model_21_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9447219989261252</v>
+        <v>0.9581884007747294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7862626610995298</v>
+        <v>0.8153172169107126</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6794825526870774</v>
+        <v>0.8226049270028466</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8177001116950279</v>
+        <v>0.7290949928501114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7896673946985594</v>
+        <v>0.7931703388760153</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3696442477127919</v>
+        <v>0.2795943565440963</v>
       </c>
       <c r="H6" t="n">
-        <v>1.429262569397395</v>
+        <v>1.234974620904088</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6397377115522883</v>
+        <v>0.4350832492102163</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4467461407222706</v>
+        <v>0.340299761451279</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5432419874616801</v>
+        <v>0.3876914428333795</v>
       </c>
       <c r="L6" t="n">
-        <v>1.078195796950495</v>
+        <v>1.291544330439193</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6079837561257635</v>
+        <v>0.5287668262515116</v>
       </c>
       <c r="N6" t="n">
-        <v>1.023274947820579</v>
+        <v>1.017604883884324</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6338668833239151</v>
+        <v>0.551277524743265</v>
       </c>
       <c r="P6" t="n">
-        <v>163.9904284570852</v>
+        <v>164.5488309057203</v>
       </c>
       <c r="Q6" t="n">
-        <v>262.7193702714094</v>
+        <v>263.2777727200446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_16</t>
+          <t>model_21_9_24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9456053955119164</v>
+        <v>0.9571964060390739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7862602877053422</v>
+        <v>0.8153126682410371</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6403889816163999</v>
+        <v>0.7727302594457981</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8169030911215445</v>
+        <v>0.7194324869143602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7741836686745094</v>
+        <v>0.7573033716913908</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3637369706759391</v>
+        <v>0.2862278299091404</v>
       </c>
       <c r="H7" t="n">
-        <v>1.429278440295256</v>
+        <v>1.235005037879152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.717766636039338</v>
+        <v>0.5574070096584464</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4486993282342908</v>
+        <v>0.3524374051941959</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5832329821368143</v>
+        <v>0.4549222074263212</v>
       </c>
       <c r="L7" t="n">
-        <v>1.075335909915192</v>
+        <v>1.310780468161841</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6031061023368435</v>
+        <v>0.5350026447683603</v>
       </c>
       <c r="N7" t="n">
-        <v>1.022902991363404</v>
+        <v>1.018022565878285</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6287815777150654</v>
+        <v>0.5577788149642999</v>
       </c>
       <c r="P7" t="n">
-        <v>164.0226485611711</v>
+        <v>164.5019343544243</v>
       </c>
       <c r="Q7" t="n">
-        <v>262.7515903754954</v>
+        <v>263.2308761687486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_10</t>
+          <t>model_21_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9445031621800978</v>
+        <v>0.9583115053809672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7862278168764478</v>
+        <v>0.8152490509128963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6871876026597654</v>
+        <v>0.8319650635301257</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8178201546003053</v>
+        <v>0.7306354332423843</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7927015471225159</v>
+        <v>0.7998101069560549</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3711076100411274</v>
+        <v>0.2787711554753398</v>
       </c>
       <c r="H8" t="n">
-        <v>1.429495572877587</v>
+        <v>1.235430447245361</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6243587951212242</v>
+        <v>0.4121263623895485</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4464519622389351</v>
+        <v>0.3383647233966655</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5354054516535984</v>
+        <v>0.375245542893107</v>
       </c>
       <c r="L8" t="n">
-        <v>1.078777688537645</v>
+        <v>1.287682410110113</v>
       </c>
       <c r="M8" t="n">
-        <v>0.609186022526065</v>
+        <v>0.5279878364842696</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02336708960838</v>
+        <v>1.017553050365908</v>
       </c>
       <c r="O8" t="n">
-        <v>0.635120332693912</v>
+        <v>0.5504653717689003</v>
       </c>
       <c r="P8" t="n">
-        <v>163.9825264088261</v>
+        <v>164.5547281300114</v>
       </c>
       <c r="Q8" t="n">
-        <v>262.7114682231503</v>
+        <v>263.2836699443356</v>
       </c>
     </row>
     <row r="9">
@@ -907,767 +907,767 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9457426815535317</v>
+        <v>0.9584078482253184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7862270749397602</v>
+        <v>0.8151567488808869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6324807612208568</v>
+        <v>0.8411031145833545</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8167066306497878</v>
+        <v>0.7320387192019457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7710346796185202</v>
+        <v>0.8062587358486955</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3628189382835132</v>
+        <v>0.2781269104315451</v>
       </c>
       <c r="H9" t="n">
-        <v>1.429500534211634</v>
+        <v>1.23604767135842</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7335510710543734</v>
+        <v>0.3897141675268904</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4491807764588502</v>
+        <v>0.3366019731163709</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5913661152324605</v>
+        <v>0.3631579234187117</v>
       </c>
       <c r="L9" t="n">
-        <v>1.074774685209525</v>
+        <v>1.283822610884851</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6023445345344417</v>
+        <v>0.5273773890029275</v>
       </c>
       <c r="N9" t="n">
-        <v>1.022845186714302</v>
+        <v>1.017512484957761</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6279875883946527</v>
+        <v>0.549828936274477</v>
       </c>
       <c r="P9" t="n">
-        <v>164.0277027235262</v>
+        <v>164.5593555142357</v>
       </c>
       <c r="Q9" t="n">
-        <v>262.7566445378504</v>
+        <v>263.28829732856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_18</t>
+          <t>model_21_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9458677452184168</v>
+        <v>0.9584768008776193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7861838167344332</v>
+        <v>0.815039847054723</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6245499092889655</v>
+        <v>0.8500117855192612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8164989227000066</v>
+        <v>0.7333033879722812</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7678717500898219</v>
+        <v>0.8125106946249641</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3619826369805613</v>
+        <v>0.2776658237281108</v>
       </c>
       <c r="H10" t="n">
-        <v>1.429789802029842</v>
+        <v>1.236829394408261</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7493806775488203</v>
+        <v>0.3678645556326463</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4496897878785766</v>
+        <v>0.3350133480651478</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5995352534452869</v>
+        <v>0.3514389518488971</v>
       </c>
       <c r="L10" t="n">
-        <v>1.074211671509555</v>
+        <v>1.279974771372608</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6016499289292415</v>
+        <v>0.526940057054036</v>
       </c>
       <c r="N10" t="n">
-        <v>1.022792528329088</v>
+        <v>1.017483452262055</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6272634119908073</v>
+        <v>0.5493729861991193</v>
       </c>
       <c r="P10" t="n">
-        <v>164.0323180648976</v>
+        <v>164.5626739225623</v>
       </c>
       <c r="Q10" t="n">
-        <v>262.7612598792218</v>
+        <v>263.2916157368865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_9</t>
+          <t>model_21_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9442692285724921</v>
+        <v>0.9585176597689962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7861802803361539</v>
+        <v>0.8148978867320622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6948468061130411</v>
+        <v>0.8586838463438589</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8179261622639523</v>
+        <v>0.7344270262559089</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7957113588429986</v>
+        <v>0.818560606390646</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3726719251523519</v>
+        <v>0.2773926001333366</v>
       </c>
       <c r="H11" t="n">
-        <v>1.429813449941419</v>
+        <v>1.237778683739561</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6090713861811168</v>
+        <v>0.3465952591568917</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4461921786753707</v>
+        <v>0.3336018797283354</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5276317824282438</v>
+        <v>0.3400987068922232</v>
       </c>
       <c r="L11" t="n">
-        <v>1.079366625181327</v>
+        <v>1.276135431859574</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6104686111114574</v>
+        <v>0.5266807383352239</v>
       </c>
       <c r="N11" t="n">
-        <v>1.023465587969477</v>
+        <v>1.017466248518317</v>
       </c>
       <c r="O11" t="n">
-        <v>0.636457523730709</v>
+        <v>0.5491026277455836</v>
       </c>
       <c r="P11" t="n">
-        <v>163.9741136072161</v>
+        <v>164.5646428945126</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.7030554215403</v>
+        <v>263.2935847088368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_19</t>
+          <t>model_21_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9459810031529154</v>
+        <v>0.9585297319528123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7861307586423489</v>
+        <v>0.8147303579826943</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6165989893695354</v>
+        <v>0.8671127913885486</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8162795409818266</v>
+        <v>0.7354075701466692</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7646955621905229</v>
+        <v>0.8244037074943962</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3612252806510635</v>
+        <v>0.27731187338457</v>
       </c>
       <c r="H12" t="n">
-        <v>1.430144601735919</v>
+        <v>1.238898949257983</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7652503388001338</v>
+        <v>0.3259222340525427</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4502274071654188</v>
+        <v>0.3323701607002201</v>
       </c>
       <c r="K12" t="n">
-        <v>0.607738635058395</v>
+        <v>0.3291461177653848</v>
       </c>
       <c r="L12" t="n">
-        <v>1.07365461605839</v>
+        <v>1.272321637884501</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6010201998694084</v>
+        <v>0.5266040954878437</v>
       </c>
       <c r="N12" t="n">
-        <v>1.02274484077772</v>
+        <v>1.017461165493553</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6266068740611782</v>
+        <v>0.5490227220535179</v>
       </c>
       <c r="P12" t="n">
-        <v>164.0365069383205</v>
+        <v>164.5652250188919</v>
       </c>
       <c r="Q12" t="n">
-        <v>262.7654487526447</v>
+        <v>263.2941668332161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_8</t>
+          <t>model_21_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9440198535960076</v>
+        <v>0.9585124478244249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7861196438117907</v>
+        <v>0.8145368368618477</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7024570020521483</v>
+        <v>0.8752927843393362</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8180180444285255</v>
+        <v>0.7362423720122417</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7986955098929764</v>
+        <v>0.830034945118199</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3743394967683696</v>
+        <v>0.277427452430683</v>
       </c>
       <c r="H13" t="n">
-        <v>1.430218926659041</v>
+        <v>1.240193025884167</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5938817939284496</v>
+        <v>0.3058597945979676</v>
       </c>
       <c r="J13" t="n">
-        <v>0.445967011217475</v>
+        <v>0.331321516827956</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5199243889646746</v>
+        <v>0.3185906557129617</v>
       </c>
       <c r="L13" t="n">
-        <v>1.079957091400756</v>
+        <v>1.268522973737352</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6118328993837857</v>
+        <v>0.5267138240360537</v>
       </c>
       <c r="N13" t="n">
-        <v>1.023570587959576</v>
+        <v>1.017468443021295</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6378798925792563</v>
+        <v>0.5491371219731946</v>
       </c>
       <c r="P13" t="n">
-        <v>163.9651842958986</v>
+        <v>164.5643916253147</v>
       </c>
       <c r="Q13" t="n">
-        <v>262.6941261102228</v>
+        <v>263.293333439639</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_20</t>
+          <t>model_21_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9460827578029791</v>
+        <v>0.9584651343691772</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7860682908024345</v>
+        <v>0.8143169050440902</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6086322947459287</v>
+        <v>0.8832171175957355</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8160494937009096</v>
+        <v>0.7369285827581398</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7615080224655478</v>
+        <v>0.8354492427298483</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3605448468375506</v>
+        <v>0.2777438377237824</v>
       </c>
       <c r="H14" t="n">
-        <v>1.430562324469065</v>
+        <v>1.241663710962205</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7811514856171624</v>
+        <v>0.2864243920088883</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4507911635993306</v>
+        <v>0.3304595270272093</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6159713358934692</v>
+        <v>0.3084418364305507</v>
       </c>
       <c r="L14" t="n">
-        <v>1.073095921818451</v>
+        <v>1.264753551583945</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6004538673683021</v>
+        <v>0.5270140773487767</v>
       </c>
       <c r="N14" t="n">
-        <v>1.022701996714535</v>
+        <v>1.017488364476136</v>
       </c>
       <c r="O14" t="n">
-        <v>0.62601643161303</v>
+        <v>0.5494501576910502</v>
       </c>
       <c r="P14" t="n">
-        <v>164.0402778564518</v>
+        <v>164.5621120742431</v>
       </c>
       <c r="Q14" t="n">
-        <v>262.769219670776</v>
+        <v>263.2910538885673</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_7</t>
+          <t>model_21_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9437544503030283</v>
+        <v>0.9583871595093046</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7860455117527452</v>
+        <v>0.8140700902870995</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7100124637513552</v>
+        <v>0.890880985326262</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8180949013000987</v>
+        <v>0.7374656922504645</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8016514198223879</v>
+        <v>0.840643045829695</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3761142498105921</v>
+        <v>0.2782652559707917</v>
       </c>
       <c r="H15" t="n">
-        <v>1.430714648079225</v>
+        <v>1.243314162378678</v>
       </c>
       <c r="I15" t="n">
-        <v>0.578801448637753</v>
+        <v>0.2676278131784923</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4457786649102856</v>
+        <v>0.3297848321072656</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5122899359871639</v>
+        <v>0.2987063226428789</v>
       </c>
       <c r="L15" t="n">
-        <v>1.080554010040583</v>
+        <v>1.261013849064705</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6132815420429609</v>
+        <v>0.5275085363961343</v>
       </c>
       <c r="N15" t="n">
-        <v>1.023682336714514</v>
+        <v>1.017521195996082</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6393902069555364</v>
+        <v>0.5499656668837251</v>
       </c>
       <c r="P15" t="n">
-        <v>163.9557246517357</v>
+        <v>164.5583609240855</v>
       </c>
       <c r="Q15" t="n">
-        <v>262.6846664660599</v>
+        <v>263.2873027384097</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_21</t>
+          <t>model_21_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9461733597697152</v>
+        <v>0.9582779155519461</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7859966822361342</v>
+        <v>0.8137959869896298</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6006508476043304</v>
+        <v>0.8982782200985022</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8158091490261814</v>
+        <v>0.7378500254629965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7583100462847742</v>
+        <v>0.8456112851175008</v>
       </c>
       <c r="G16" t="n">
-        <v>0.359938991068803</v>
+        <v>0.2789957708166708</v>
       </c>
       <c r="H16" t="n">
-        <v>1.431041171281642</v>
+        <v>1.245147092390988</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7970820777644803</v>
+        <v>0.2494851844938238</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4513801549414334</v>
+        <v>0.3293020484853665</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6242309917552353</v>
+        <v>0.2893936164895951</v>
       </c>
       <c r="L16" t="n">
-        <v>1.072539954132311</v>
+        <v>1.257315181689437</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5999491570698329</v>
+        <v>0.5282005024767307</v>
       </c>
       <c r="N16" t="n">
-        <v>1.022663848518015</v>
+        <v>1.017567193451812</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6254902347522606</v>
+        <v>0.5506870913929398</v>
       </c>
       <c r="P16" t="n">
-        <v>164.0436414622937</v>
+        <v>164.5531173112777</v>
       </c>
       <c r="Q16" t="n">
-        <v>262.7725832766179</v>
+        <v>263.2820591256019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_6</t>
+          <t>model_21_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9434726653886647</v>
+        <v>0.9581368958937938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7859574490488754</v>
+        <v>0.8134941082706717</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7175112202183225</v>
+        <v>0.9054040065113339</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8181569861463631</v>
+        <v>0.7380810594777809</v>
       </c>
       <c r="F17" t="n">
-        <v>0.80457831687451</v>
+        <v>0.8503505693530051</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3779985468304416</v>
+        <v>0.279938769920071</v>
       </c>
       <c r="H17" t="n">
-        <v>1.431303523785493</v>
+        <v>1.247165756774685</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5638342843167981</v>
+        <v>0.2320083163187839</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4456265190931712</v>
+        <v>0.3290118330296043</v>
       </c>
       <c r="K17" t="n">
-        <v>0.504730416770389</v>
+        <v>0.2805100746741941</v>
       </c>
       <c r="L17" t="n">
-        <v>1.081157940976614</v>
+        <v>1.253652661228271</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6148158641662084</v>
+        <v>0.5290924020623156</v>
       </c>
       <c r="N17" t="n">
-        <v>1.023800982994246</v>
+        <v>1.017626570149982</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6409898483480551</v>
+        <v>0.5516169609903697</v>
       </c>
       <c r="P17" t="n">
-        <v>163.9457298554677</v>
+        <v>164.546368757167</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.6746716697919</v>
+        <v>263.2753105714912</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_22</t>
+          <t>model_21_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9462532317295953</v>
+        <v>0.9579635622922461</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7859162888781046</v>
+        <v>0.8131640746735642</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5926592332470721</v>
+        <v>0.912253498774078</v>
       </c>
       <c r="E18" t="n">
-        <v>0.815558139611553</v>
+        <v>0.7381558855372499</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7551029778473262</v>
+        <v>0.8548567536465963</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3594048869053081</v>
+        <v>0.2810978525117478</v>
       </c>
       <c r="H18" t="n">
-        <v>1.431578762036963</v>
+        <v>1.249372692958207</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8130329631948433</v>
+        <v>0.2152090935514031</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4519952814141531</v>
+        <v>0.3289178396019615</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6325141308785682</v>
+        <v>0.2720634665766823</v>
       </c>
       <c r="L18" t="n">
-        <v>1.0719840892513</v>
+        <v>1.250039618575056</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5995038672980417</v>
+        <v>0.5301866204571253</v>
       </c>
       <c r="N18" t="n">
-        <v>1.022630218219118</v>
+        <v>1.017699552719054</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6250259880730075</v>
+        <v>0.5527577625275908</v>
       </c>
       <c r="P18" t="n">
-        <v>164.0466114146516</v>
+        <v>164.5381048813741</v>
       </c>
       <c r="Q18" t="n">
-        <v>262.7755532289759</v>
+        <v>263.2670466956984</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_5</t>
+          <t>model_21_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9431739487598548</v>
+        <v>0.9577572555628689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7858550174148904</v>
+        <v>0.8128054601740308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7249476680674913</v>
+        <v>0.9188225403618127</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8182036746540269</v>
+        <v>0.7380727209343219</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8074739580748045</v>
+        <v>0.8591265424330405</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3799960663027571</v>
+        <v>0.2824774265610484</v>
       </c>
       <c r="H19" t="n">
-        <v>1.431988484593606</v>
+        <v>1.251770749767855</v>
       </c>
       <c r="I19" t="n">
-        <v>0.548991485058945</v>
+        <v>0.1990977105806119</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4455121037152531</v>
+        <v>0.3290223075659733</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4972516244149693</v>
+        <v>0.2640599695626925</v>
       </c>
       <c r="L19" t="n">
-        <v>1.081765920005471</v>
+        <v>1.24647410754024</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6164382096388551</v>
+        <v>0.5314860549074155</v>
       </c>
       <c r="N19" t="n">
-        <v>1.023926758416903</v>
+        <v>1.017786418710371</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6426812604261906</v>
+        <v>0.5541125165926302</v>
       </c>
       <c r="P19" t="n">
-        <v>163.9351887563003</v>
+        <v>164.5283132751338</v>
       </c>
       <c r="Q19" t="n">
-        <v>262.6641305706245</v>
+        <v>263.257255089458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_23</t>
+          <t>model_21_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9463225234093675</v>
+        <v>0.9575175072469765</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7858273369415445</v>
+        <v>0.8124178718058737</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5846576926519677</v>
+        <v>0.9251069869367774</v>
       </c>
       <c r="E20" t="n">
-        <v>0.815296972400896</v>
+        <v>0.737829166224698</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7518873111555677</v>
+        <v>0.8631564172502991</v>
       </c>
       <c r="G20" t="n">
-        <v>0.358941533123613</v>
+        <v>0.284080624653361</v>
       </c>
       <c r="H20" t="n">
-        <v>1.432173584046327</v>
+        <v>1.254362554970402</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8290036609278978</v>
+        <v>0.1836843319048266</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4526353006951797</v>
+        <v>0.3293282510051786</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6408194773660594</v>
+        <v>0.2565061788063254</v>
       </c>
       <c r="L20" t="n">
-        <v>1.071429176617125</v>
+        <v>1.242964975815851</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5991172949628587</v>
+        <v>0.532992143144119</v>
       </c>
       <c r="N20" t="n">
-        <v>1.022601042775003</v>
+        <v>1.017887365369694</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6246229585532005</v>
+        <v>0.5556827221236025</v>
       </c>
       <c r="P20" t="n">
-        <v>164.0491915282739</v>
+        <v>164.5169943829709</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.7781333425982</v>
+        <v>263.2459361972951</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_4</t>
+          <t>model_21_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9428578171010081</v>
+        <v>0.9572437238055154</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7857377206305542</v>
+        <v>0.8120008469940204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7323175986128121</v>
+        <v>0.9311030973630244</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8182342247567365</v>
+        <v>0.737424111146467</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8103361034585437</v>
+        <v>0.8669434130000799</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3821100401611173</v>
+        <v>0.2859114157870677</v>
       </c>
       <c r="H21" t="n">
-        <v>1.432772848730563</v>
+        <v>1.257151201807488</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5342814512030977</v>
+        <v>0.1689781331203956</v>
       </c>
       <c r="J21" t="n">
-        <v>0.445437237292618</v>
+        <v>0.3298370645850634</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4898593442478578</v>
+        <v>0.2494076522301187</v>
       </c>
       <c r="L21" t="n">
-        <v>1.082382635572681</v>
+        <v>1.239521044611037</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6181504996043579</v>
+        <v>0.5347068503274179</v>
       </c>
       <c r="N21" t="n">
-        <v>1.024059866483786</v>
+        <v>1.018002642608204</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6444664461204536</v>
+        <v>0.5574704279416276</v>
       </c>
       <c r="P21" t="n">
-        <v>163.9240932972176</v>
+        <v>164.5041465023007</v>
       </c>
       <c r="Q21" t="n">
-        <v>262.6530351115418</v>
+        <v>263.2330883166249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_21_9_24</t>
+          <t>model_21_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9463817513846968</v>
+        <v>0.9569355508091286</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7857301740792164</v>
+        <v>0.8115540284364282</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5766508245349633</v>
+        <v>0.9368075540523553</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8150263385604879</v>
+        <v>0.7368559905152475</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7486650059622914</v>
+        <v>0.8704850256165187</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3585454753798658</v>
+        <v>0.2879721700329125</v>
       </c>
       <c r="H22" t="n">
-        <v>1.432823312554108</v>
+        <v>1.260139079559517</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8449849921434568</v>
+        <v>0.1549872510206833</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4532985190047211</v>
+        <v>0.3305507144260667</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6491419696153937</v>
+        <v>0.242769083575302</v>
       </c>
       <c r="L22" t="n">
-        <v>1.070876045990121</v>
+        <v>1.236137734211465</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5987866693404803</v>
+        <v>0.5366303849326018</v>
       </c>
       <c r="N22" t="n">
-        <v>1.022576104680128</v>
+        <v>1.018132399659314</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6242782575135881</v>
+        <v>0.5594758513972199</v>
       </c>
       <c r="P22" t="n">
-        <v>164.0513995558997</v>
+        <v>164.489782870691</v>
       </c>
       <c r="Q22" t="n">
-        <v>262.7803413702239</v>
+        <v>263.2187246850153</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9425238345915065</v>
+        <v>0.9565923058614174</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7856051056842104</v>
+        <v>0.8110769841618465</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7396184327204167</v>
+        <v>0.9422171220473886</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8182484131654448</v>
+        <v>0.7361209277364253</v>
       </c>
       <c r="F23" t="n">
-        <v>0.813163847090156</v>
+        <v>0.8737778978545616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3843433827400029</v>
+        <v>0.2902674505787551</v>
       </c>
       <c r="H23" t="n">
-        <v>1.433659645487401</v>
+        <v>1.263329076820232</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5197093305788437</v>
+        <v>0.1417196197368061</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4454024670198967</v>
+        <v>0.3314740701473822</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4825559160976306</v>
+        <v>0.2365967658231227</v>
       </c>
       <c r="L23" t="n">
-        <v>1.083008864206583</v>
+        <v>1.232826036417028</v>
       </c>
       <c r="M23" t="n">
-        <v>0.619954339237982</v>
+        <v>0.5387647451149297</v>
       </c>
       <c r="N23" t="n">
-        <v>1.024200490698313</v>
+        <v>1.018276923847824</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6463470789417439</v>
+        <v>0.5617010757112439</v>
       </c>
       <c r="P23" t="n">
-        <v>163.9124378001815</v>
+        <v>164.4739050752635</v>
       </c>
       <c r="Q23" t="n">
-        <v>262.6413796145058</v>
+        <v>263.2028468895877</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9421714698028215</v>
+        <v>0.9562136826103204</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7854567653269034</v>
+        <v>0.8105693403078071</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7468441229017018</v>
+        <v>0.9473294027159709</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8182456524361313</v>
+        <v>0.7352200870038086</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8159545418114187</v>
+        <v>0.8768205909976691</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3866996477044302</v>
+        <v>0.2927993060022405</v>
       </c>
       <c r="H24" t="n">
-        <v>1.434651598139756</v>
+        <v>1.266723693609679</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5052871936882795</v>
+        <v>0.1291811222093295</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4454092324939615</v>
+        <v>0.3326056693364866</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4753481769807928</v>
+        <v>0.230893395772908</v>
       </c>
       <c r="L24" t="n">
-        <v>1.083639200561579</v>
+        <v>1.229590373951794</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6218517891784426</v>
+        <v>0.5411093290659851</v>
       </c>
       <c r="N24" t="n">
-        <v>1.024348854819865</v>
+        <v>1.018436344164076</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6483253072544327</v>
+        <v>0.5641454734550536</v>
       </c>
       <c r="P24" t="n">
-        <v>163.9002139828</v>
+        <v>164.4565357342174</v>
       </c>
       <c r="Q24" t="n">
-        <v>262.6291557971242</v>
+        <v>263.1854775485417</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9418001618642643</v>
+        <v>0.9557992339479494</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7852921864946139</v>
+        <v>0.8100306605746124</v>
       </c>
       <c r="D25" t="n">
-        <v>0.753990678857049</v>
+        <v>0.9521422051873649</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8182260254387757</v>
+        <v>0.7341492727651543</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8187067218976953</v>
+        <v>0.8796104093816058</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3891825855992782</v>
+        <v>0.2955707261158759</v>
       </c>
       <c r="H25" t="n">
-        <v>1.435752137549092</v>
+        <v>1.270325847465944</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4910230049812898</v>
+        <v>0.117377131818375</v>
       </c>
       <c r="J25" t="n">
-        <v>0.445457330632716</v>
+        <v>0.3339507822740672</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4682399125356361</v>
+        <v>0.2256640263070694</v>
       </c>
       <c r="L25" t="n">
-        <v>1.084277829265414</v>
+        <v>1.226433542329786</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6238450012617542</v>
+        <v>0.5436641666653007</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02450519500452</v>
+        <v>1.018610848864021</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6504033745026487</v>
+        <v>0.5668090757802151</v>
       </c>
       <c r="P25" t="n">
-        <v>163.8874133475273</v>
+        <v>164.4376942537928</v>
       </c>
       <c r="Q25" t="n">
-        <v>262.6163551618515</v>
+        <v>263.166636068117</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.941409352759123</v>
+        <v>0.9553484417697699</v>
       </c>
       <c r="C26" t="n">
-        <v>0.785110825426232</v>
+        <v>0.8094605760120754</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7610537040822142</v>
+        <v>0.9566533345946867</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8181884821917503</v>
+        <v>0.7329084114714396</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8214179744399881</v>
+        <v>0.8821459816569769</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3917959278848685</v>
+        <v>0.2985851754870696</v>
       </c>
       <c r="H26" t="n">
-        <v>1.436964899848453</v>
+        <v>1.274138005560626</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4769255396730382</v>
+        <v>0.1063130317451062</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4455493345328539</v>
+        <v>0.3355095013493908</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4612373547654094</v>
+        <v>0.2209112279487254</v>
       </c>
       <c r="L26" t="n">
-        <v>1.084928228931022</v>
+        <v>1.223685804479678</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6259360413691391</v>
+        <v>0.5464294789696742</v>
       </c>
       <c r="N26" t="n">
-        <v>1.024669746206685</v>
+        <v>1.018800656096939</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6525834345164546</v>
+        <v>0.5696921131543714</v>
       </c>
       <c r="P26" t="n">
-        <v>163.8740283337545</v>
+        <v>164.4174000836746</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.6029701480787</v>
+        <v>263.1463418979989</v>
       </c>
     </row>
   </sheetData>
